--- a/StructureDefinition-profile-Immunization.xlsx
+++ b/StructureDefinition-profile-Immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="522">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7121893-06:00</t>
+    <t>2026-02-09T22:05:43.1546558-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -428,33 +428,115 @@
     <t>Immunization.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Immunization.extension:administeredProduct</t>
+  </si>
+  <si>
+    <t>administeredProduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.administeredProduct|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Immunization.administeredProduct from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An indication of which product was administered to the patient. This is typically a more detailed representation of the concept conveyed by the vaccineCode data element. If a Medication resource is referenced, it may be to a stand-alone resource or a contained resource within the Immunization resource.</t>
+  </si>
+  <si>
+    <t>Element `Immunization.administeredProduct` is will have a context of Immunization based on following the parent source element upwards and mapping to `Immunization`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Immunization.extension:informationSource</t>
+  </si>
+  <si>
+    <t>informationSource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.informationSource|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Immunization.informationSource from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Typically the source of the data when the report of the immunization event is not based on information from the person who administered the vaccine.</t>
+  </si>
+  <si>
+    <t>Element `Immunization.informationSource` is will have a context of Immunization based on following the parent source element upwards and mapping to `Immunization`.</t>
+  </si>
+  <si>
+    <t>Immunization.extension:basedOn</t>
+  </si>
+  <si>
+    <t>basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Immunization.basedOn from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CarePlan,http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation,http://hl7.org/fhir/StructureDefinition/MedicationRequest,http://hl7.org/fhir/StructureDefinition/ServiceRequest in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Immunization.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Immunization.basedOn` is will have a context of Immunization based on following the parent source element upwards and mapping to `Immunization`.</t>
+  </si>
+  <si>
+    <t>Immunization.extension:supportingInformation</t>
+  </si>
+  <si>
+    <t>supportingInformation</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Immunization.supportingInformation from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Resource in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Immunization.supportingInformation` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Immunization.supportingInformation` is will have a context of Immunization based on following the parent source element upwards and mapping to `Immunization`.</t>
+  </si>
+  <si>
+    <t>Immunization.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Immunization.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -462,6 +544,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -799,23 +884,16 @@
     <t>Immunization.manufacturer.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Immunization.manufacturer.extension:manufacturer</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.manufacturer|0.0.1-snapshot-3}
@@ -823,6 +901,9 @@
   </si>
   <si>
     <t>Cross-version extension for Immunization.manufacturer from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Immunization.manufacturer` is mapped to FHIR R4 element `Immunization.manufacturer`.</t>
   </si>
   <si>
     <t>Immunization.manufacturer.reference</t>
@@ -1037,6 +1118,9 @@
     <t>Immunization.performer.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -1109,11 +1193,20 @@
     <t>Immunization.performer.actor.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.performer.actor|0.0.1-snapshot-3}
-</t>
+    <t>Immunization.performer.actor.extension:actor</t>
+  </si>
+  <si>
+    <t>actor</t>
   </si>
   <si>
     <t>Cross-version extension for Immunization.performer.actor from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Immunization.performer.actor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Immunization.performer.actor` is mapped to FHIR R4 element `Immunization.performer.actor`.</t>
   </si>
   <si>
     <t>Immunization.performer.actor.reference</t>
@@ -1308,11 +1401,20 @@
     <t>Immunization.programEligibility.extension</t>
   </si>
   <si>
+    <t>Immunization.programEligibility.extension:programEligibility</t>
+  </si>
+  <si>
+    <t>programEligibility</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.programEligibility|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Immunization.programEligibility from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Immunization.programEligibility` is mapped to FHIR R4 element `Immunization.programEligibility`.</t>
   </si>
   <si>
     <t>Immunization.programEligibility.coding</t>
@@ -1835,7 +1937,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO83"/>
+  <dimension ref="A1:AO87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1844,9 +1946,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.56640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="19.1953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1854,7 +1956,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="93.78125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.6171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2835,7 +2937,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2854,17 +2956,15 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -2901,16 +3001,14 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>139</v>
@@ -2934,7 +3032,7 @@
         <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>78</v>
@@ -2948,43 +3046,43 @@
         <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -3032,7 +3130,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3041,7 +3139,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>140</v>
@@ -3053,7 +3151,7 @@
         <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>78</v>
@@ -3064,12 +3162,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
       </c>
@@ -3078,7 +3178,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
@@ -3090,15 +3190,17 @@
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>78</v>
@@ -3147,7 +3249,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3156,25 +3258,25 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -3182,39 +3284,41 @@
         <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3240,13 +3344,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -3264,31 +3368,31 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>78</v>
@@ -3296,12 +3400,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3310,7 +3416,7 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -3322,16 +3428,16 @@
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3357,13 +3463,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -3381,28 +3487,28 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3413,42 +3519,46 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3472,13 +3582,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3496,42 +3606,42 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>183</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3539,10 +3649,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3551,16 +3661,16 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3611,13 +3721,13 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
@@ -3626,27 +3736,27 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3654,7 +3764,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>89</v>
@@ -3663,21 +3773,23 @@
         <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3702,13 +3814,13 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3726,10 +3838,10 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>89</v>
@@ -3741,16 +3853,16 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>78</v>
@@ -3758,10 +3870,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3769,7 +3881,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
@@ -3781,19 +3893,19 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3819,13 +3931,13 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3843,10 +3955,10 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>89</v>
@@ -3858,27 +3970,27 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3886,7 +3998,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>89</v>
@@ -3898,16 +4010,16 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3934,13 +4046,13 @@
         <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>78</v>
@@ -3958,10 +4070,10 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>89</v>
@@ -3973,27 +4085,27 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>78</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4001,7 +4113,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>89</v>
@@ -4016,17 +4128,15 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -4075,10 +4185,10 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>89</v>
@@ -4090,16 +4200,16 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -4107,10 +4217,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4133,17 +4243,15 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4168,13 +4276,13 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
@@ -4192,7 +4300,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4207,16 +4315,16 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>78</v>
@@ -4224,10 +4332,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4235,7 +4343,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>89</v>
@@ -4247,18 +4355,20 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4307,10 +4417,10 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>89</v>
@@ -4322,27 +4432,27 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4365,13 +4475,13 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4422,7 +4532,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4440,24 +4550,24 @@
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4477,18 +4587,20 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4537,7 +4649,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4549,19 +4661,19 @@
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4569,10 +4681,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4580,11 +4692,11 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4595,15 +4707,17 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4628,55 +4742,55 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="AC24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AD24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AN24" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>78</v>
@@ -4684,10 +4798,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4710,13 +4824,13 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4767,31 +4881,31 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>78</v>
@@ -4799,10 +4913,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4822,20 +4936,18 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4893,7 +5005,7 @@
         <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>101</v>
@@ -4902,24 +5014,24 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>132</v>
+        <v>270</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4939,20 +5051,18 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4977,13 +5087,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -5001,7 +5111,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5013,7 +5123,7 @@
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
@@ -5022,7 +5132,7 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>132</v>
+        <v>277</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -5033,10 +5143,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5047,7 +5157,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -5056,20 +5166,18 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>276</v>
+        <v>135</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5106,31 +5214,31 @@
         <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -5139,7 +5247,7 @@
         <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5153,9 +5261,11 @@
         <v>281</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5173,19 +5283,19 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5235,19 +5345,19 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
@@ -5256,7 +5366,7 @@
         <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5290,10 +5400,10 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>287</v>
@@ -5301,7 +5411,9 @@
       <c r="M30" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="N30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5350,7 +5462,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5359,7 +5471,7 @@
         <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>101</v>
@@ -5368,16 +5480,16 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>132</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
@@ -5405,18 +5517,20 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5441,13 +5555,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5465,7 +5579,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5483,10 +5597,10 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>297</v>
+        <v>132</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5497,10 +5611,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5520,18 +5634,20 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5556,13 +5672,13 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5580,7 +5696,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5598,16 +5714,16 @@
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>305</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -5635,10 +5751,10 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>165</v>
+        <v>273</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>307</v>
@@ -5646,7 +5762,9 @@
       <c r="M33" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="N33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5671,31 +5789,31 @@
         <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5713,24 +5831,24 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>311</v>
+        <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>312</v>
+        <v>132</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>313</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5753,13 +5871,13 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5810,7 +5928,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5828,24 +5946,24 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>78</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5856,7 +5974,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5865,16 +5983,16 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5925,13 +6043,13 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
@@ -5940,13 +6058,13 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>324</v>
+        <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -5957,10 +6075,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5983,13 +6101,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>248</v>
+        <v>324</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6016,13 +6134,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -6040,7 +6158,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>250</v>
+        <v>323</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6052,41 +6170,41 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>251</v>
+        <v>329</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6098,17 +6216,15 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>136</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6133,13 +6249,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -6157,78 +6273,74 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>258</v>
+        <v>331</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>251</v>
+        <v>337</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>135</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6276,28 +6388,28 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>132</v>
+        <v>344</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6308,10 +6420,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6322,7 +6434,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6334,13 +6446,13 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>165</v>
+        <v>346</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6367,13 +6479,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6391,13 +6503,13 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
@@ -6406,13 +6518,13 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6423,10 +6535,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6434,7 +6546,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>89</v>
@@ -6446,20 +6558,18 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>343</v>
+        <v>273</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>344</v>
+        <v>274</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6508,10 +6618,10 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>342</v>
+        <v>276</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>89</v>
@@ -6520,19 +6630,19 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>347</v>
+        <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>348</v>
+        <v>277</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>349</v>
+        <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -6540,21 +6650,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6566,15 +6676,17 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>247</v>
+        <v>134</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>248</v>
+        <v>354</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6623,19 +6735,19 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
@@ -6644,7 +6756,7 @@
         <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6655,18 +6767,18 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>80</v>
@@ -6675,22 +6787,26 @@
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6726,19 +6842,19 @@
         <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>258</v>
+        <v>360</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6759,7 +6875,7 @@
         <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -6770,10 +6886,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6781,7 +6897,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>89</v>
@@ -6793,20 +6909,18 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>352</v>
+        <v>191</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6831,13 +6945,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>78</v>
+        <v>364</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>78</v>
+        <v>365</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -6855,28 +6969,28 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>258</v>
+        <v>361</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>78</v>
+        <v>366</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6887,10 +7001,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6898,7 +7012,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>89</v>
@@ -6913,16 +7027,16 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>247</v>
+        <v>369</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>263</v>
+        <v>371</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>264</v>
+        <v>372</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6972,31 +7086,31 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>265</v>
+        <v>368</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>132</v>
+        <v>374</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7004,10 +7118,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7027,20 +7141,18 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7065,13 +7177,13 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -7089,7 +7201,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7101,7 +7213,7 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
@@ -7110,7 +7222,7 @@
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>132</v>
+        <v>277</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7121,10 +7233,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7132,10 +7244,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7144,20 +7256,18 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>276</v>
+        <v>135</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7194,31 +7304,31 @@
         <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
@@ -7227,7 +7337,7 @@
         <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7238,18 +7348,20 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>89</v>
@@ -7261,19 +7373,19 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>282</v>
+        <v>380</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>283</v>
+        <v>381</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>284</v>
+        <v>382</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7323,19 +7435,19 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -7344,7 +7456,7 @@
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7355,10 +7467,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7369,7 +7481,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7381,15 +7493,17 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>359</v>
+        <v>273</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>287</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7438,28 +7552,28 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>363</v>
+        <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>364</v>
+        <v>132</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7470,10 +7584,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7484,7 +7598,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7493,18 +7607,20 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>366</v>
+        <v>293</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7529,13 +7645,13 @@
         <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>169</v>
+        <v>296</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>368</v>
+        <v>297</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>369</v>
+        <v>298</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -7553,13 +7669,13 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
@@ -7568,13 +7684,13 @@
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>370</v>
+        <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>371</v>
+        <v>132</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7585,10 +7701,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7599,7 +7715,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7608,18 +7724,20 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>373</v>
+        <v>173</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>366</v>
+        <v>301</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7668,13 +7786,13 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>372</v>
+        <v>304</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
@@ -7683,13 +7801,13 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>375</v>
+        <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>132</v>
+        <v>305</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7700,10 +7818,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7720,30 +7838,28 @@
         <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>217</v>
+        <v>273</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>378</v>
+        <v>308</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>379</v>
+        <v>309</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q51" t="s" s="2">
-        <v>380</v>
-      </c>
+      <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7787,7 +7903,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>376</v>
+        <v>310</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7805,7 +7921,7 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>381</v>
+        <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>132</v>
@@ -7819,10 +7935,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7842,16 +7958,16 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>165</v>
+        <v>388</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7878,13 +7994,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>385</v>
+        <v>78</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>386</v>
+        <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7902,7 +8018,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7917,13 +8033,13 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>78</v>
+        <v>392</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>132</v>
+        <v>393</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -7934,10 +8050,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7960,13 +8076,13 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>321</v>
+        <v>191</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7993,13 +8109,13 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>78</v>
+        <v>397</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>78</v>
+        <v>398</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -8017,7 +8133,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8029,16 +8145,16 @@
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>390</v>
+        <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>132</v>
+        <v>400</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8049,10 +8165,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8063,7 +8179,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -8075,13 +8191,13 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>247</v>
+        <v>402</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>248</v>
+        <v>395</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>249</v>
+        <v>403</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8132,28 +8248,28 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>250</v>
+        <v>401</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8164,48 +8280,50 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>135</v>
+        <v>243</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>136</v>
+        <v>406</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>329</v>
+        <v>407</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>138</v>
+        <v>408</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="R55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8249,28 +8367,28 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>258</v>
+        <v>405</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>78</v>
+        <v>410</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8281,14 +8399,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8301,26 +8419,22 @@
         <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>332</v>
+        <v>412</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8344,13 +8458,13 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>78</v>
+        <v>414</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>78</v>
+        <v>415</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8368,7 +8482,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>334</v>
+        <v>411</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8380,7 +8494,7 @@
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
@@ -8400,10 +8514,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8414,7 +8528,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8426,13 +8540,13 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>247</v>
+        <v>346</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8483,25 +8597,25 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>419</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>132</v>
@@ -8515,10 +8629,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8541,13 +8655,13 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>399</v>
+        <v>274</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8598,7 +8712,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>398</v>
+        <v>276</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8610,7 +8724,7 @@
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
@@ -8619,7 +8733,7 @@
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>132</v>
+        <v>277</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8630,21 +8744,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8656,15 +8770,17 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8713,28 +8829,28 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>401</v>
+        <v>280</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>404</v>
+        <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>132</v>
+        <v>277</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -8745,42 +8861,46 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8828,25 +8948,25 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>408</v>
+        <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>132</v>
@@ -8860,10 +8980,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8874,7 +8994,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8886,13 +9006,13 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>165</v>
+        <v>273</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8919,13 +9039,13 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>412</v>
+        <v>78</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>413</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -8943,13 +9063,13 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
@@ -8961,7 +9081,7 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>132</v>
@@ -8975,10 +9095,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9001,13 +9121,13 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>247</v>
+        <v>103</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>248</v>
+        <v>428</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>249</v>
+        <v>429</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9058,7 +9178,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>250</v>
+        <v>427</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9070,7 +9190,7 @@
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -9079,7 +9199,7 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9090,10 +9210,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9101,11 +9221,11 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9116,13 +9236,13 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>253</v>
+        <v>431</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>254</v>
+        <v>432</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9161,40 +9281,40 @@
         <v>78</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>258</v>
+        <v>430</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>78</v>
+        <v>433</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9205,10 +9325,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9219,7 +9339,7 @@
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
@@ -9231,13 +9351,13 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>417</v>
+        <v>237</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9288,28 +9408,28 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>258</v>
+        <v>434</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>78</v>
+        <v>437</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9320,10 +9440,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9343,23 +9463,19 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>420</v>
+        <v>191</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9383,13 +9499,13 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>78</v>
+        <v>441</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>78</v>
+        <v>442</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
@@ -9407,7 +9523,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9425,10 +9541,10 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>427</v>
+        <v>132</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9439,10 +9555,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9462,23 +9578,19 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>429</v>
+        <v>274</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9526,7 +9638,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>433</v>
+        <v>276</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9538,16 +9650,16 @@
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>435</v>
+        <v>277</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9558,10 +9670,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9572,7 +9684,7 @@
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9584,13 +9696,13 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>437</v>
+        <v>135</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>438</v>
+        <v>136</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9617,43 +9729,43 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>440</v>
+        <v>78</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>436</v>
+        <v>280</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
@@ -9662,7 +9774,7 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9673,12 +9785,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="D68" t="s" s="2">
         <v>78</v>
       </c>
@@ -9699,16 +9813,16 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>321</v>
+        <v>448</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9758,7 +9872,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>441</v>
+        <v>280</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9770,16 +9884,16 @@
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>445</v>
+        <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>446</v>
+        <v>78</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -9790,10 +9904,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9804,7 +9918,7 @@
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -9813,19 +9927,23 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>247</v>
+        <v>452</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>248</v>
+        <v>453</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
       </c>
@@ -9873,28 +9991,28 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>250</v>
+        <v>457</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>78</v>
+        <v>458</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>251</v>
+        <v>459</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -9905,21 +10023,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -9928,21 +10046,23 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>135</v>
+        <v>273</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>136</v>
+        <v>461</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>329</v>
+        <v>462</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
       </c>
@@ -9990,28 +10110,28 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>258</v>
+        <v>465</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>78</v>
+        <v>466</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>251</v>
+        <v>467</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10022,46 +10142,42 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>332</v>
+        <v>469</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>78</v>
       </c>
@@ -10085,13 +10201,13 @@
         <v>78</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>78</v>
+        <v>471</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>78</v>
+        <v>472</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>78</v>
@@ -10109,19 +10225,19 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>334</v>
+        <v>468</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
@@ -10141,10 +10257,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10155,7 +10271,7 @@
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10167,15 +10283,17 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>211</v>
+        <v>346</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -10224,13 +10342,13 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
@@ -10242,10 +10360,10 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>207</v>
+        <v>478</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10256,10 +10374,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10282,13 +10400,13 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>455</v>
+        <v>273</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>456</v>
+        <v>274</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>457</v>
+        <v>275</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10339,7 +10457,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>454</v>
+        <v>276</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10351,16 +10469,16 @@
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>458</v>
+        <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>459</v>
+        <v>277</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10371,21 +10489,21 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10397,15 +10515,17 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>461</v>
+        <v>354</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10454,28 +10574,28 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>460</v>
+        <v>280</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>463</v>
+        <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>464</v>
+        <v>277</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10486,14 +10606,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10506,22 +10626,26 @@
         <v>78</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>321</v>
+        <v>134</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>466</v>
+        <v>358</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
       </c>
@@ -10569,7 +10693,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>465</v>
+        <v>360</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10581,7 +10705,7 @@
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -10601,10 +10725,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10627,13 +10751,13 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>248</v>
+        <v>483</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>249</v>
+        <v>484</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10684,7 +10808,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>250</v>
+        <v>482</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10696,16 +10820,16 @@
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>78</v>
+        <v>485</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10716,21 +10840,21 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
@@ -10742,17 +10866,15 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>135</v>
+        <v>487</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>136</v>
+        <v>488</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>78</v>
@@ -10801,28 +10923,28 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>258</v>
+        <v>486</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>78</v>
+        <v>490</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>251</v>
+        <v>491</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -10833,46 +10955,42 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>135</v>
+        <v>243</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>332</v>
+        <v>493</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
@@ -10920,28 +11038,28 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>334</v>
+        <v>492</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>78</v>
+        <v>495</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>132</v>
+        <v>496</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -10952,10 +11070,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10966,7 +11084,7 @@
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
@@ -10978,13 +11096,13 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>247</v>
+        <v>346</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11035,13 +11153,13 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
@@ -11067,10 +11185,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11093,13 +11211,13 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>475</v>
+        <v>274</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>476</v>
+        <v>275</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11150,7 +11268,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>474</v>
+        <v>276</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11162,7 +11280,7 @@
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
@@ -11171,7 +11289,7 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>132</v>
+        <v>277</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11182,14 +11300,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11208,15 +11326,17 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>478</v>
+        <v>354</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -11241,13 +11361,13 @@
         <v>78</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>480</v>
+        <v>78</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>78</v>
@@ -11265,7 +11385,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>477</v>
+        <v>280</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11277,7 +11397,7 @@
         <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
@@ -11286,7 +11406,7 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>132</v>
+        <v>277</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11297,44 +11417,46 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>483</v>
+        <v>134</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>484</v>
+        <v>358</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>485</v>
+        <v>359</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11382,19 +11504,19 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>482</v>
+        <v>360</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
@@ -11414,10 +11536,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11440,17 +11562,15 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>483</v>
+        <v>273</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>78</v>
@@ -11499,7 +11619,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11526,6 +11646,470 @@
         <v>78</v>
       </c>
       <c r="AO83" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO87" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Immunization.xlsx
+++ b/StructureDefinition-profile-Immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="526">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.1546558-06:00</t>
+    <t>2026-02-17T14:42:26.8257334-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -468,7 +468,7 @@
     <t>An indication of which product was administered to the patient. This is typically a more detailed representation of the concept conveyed by the vaccineCode data element. If a Medication resource is referenced, it may be to a stand-alone resource or a contained resource within the Immunization resource.</t>
   </si>
   <si>
-    <t>Element `Immunization.administeredProduct` is will have a context of Immunization based on following the parent source element upwards and mapping to `Immunization`.</t>
+    <t>Element `Immunization.administeredProduct` has a context of Immunization based on following the parent source element upwards and mapping to `Immunization`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -491,7 +491,7 @@
     <t>Typically the source of the data when the report of the immunization event is not based on information from the person who administered the vaccine.</t>
   </si>
   <si>
-    <t>Element `Immunization.informationSource` is will have a context of Immunization based on following the parent source element upwards and mapping to `Immunization`.</t>
+    <t>Element `Immunization.informationSource` has a context of Immunization based on following the parent source element upwards and mapping to `Immunization`.</t>
   </si>
   <si>
     <t>Immunization.extension:basedOn</t>
@@ -511,7 +511,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Immunization.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Immunization.basedOn` is will have a context of Immunization based on following the parent source element upwards and mapping to `Immunization`.</t>
+Element `Immunization.basedOn` has a context of Immunization based on following the parent source element upwards and mapping to `Immunization`.</t>
   </si>
   <si>
     <t>Immunization.extension:supportingInformation</t>
@@ -527,7 +527,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Immunization.supportingInformation` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Immunization.supportingInformation` is will have a context of Immunization based on following the parent source element upwards and mapping to `Immunization`.</t>
+Element `Immunization.supportingInformation` has a context of Immunization based on following the parent source element upwards and mapping to `Immunization`.</t>
   </si>
   <si>
     <t>Immunization.modifierExtension</t>
@@ -903,7 +903,7 @@
     <t>Cross-version extension for Immunization.manufacturer from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Immunization.manufacturer` is mapped to FHIR R4 element `Immunization.manufacturer`.</t>
+    <t>Element `Immunization.manufacturer` has is mapped to FHIR R4 element `Immunization.manufacturer`, but has no comparisons.</t>
   </si>
   <si>
     <t>Immunization.manufacturer.reference</t>
@@ -1118,10 +1118,20 @@
     <t>Immunization.performer.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Immunization.performer.extension:performer</t>
+  </si>
+  <si>
+    <t>performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.performer|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Immunization.performer from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Immunization.performer` has is mapped to FHIR R4 element `Immunization.performer`, but has no comparisons.</t>
   </si>
   <si>
     <t>Immunization.performer.modifierExtension</t>
@@ -1187,40 +1197,6 @@
     <t>FiveWs.actor</t>
   </si>
   <si>
-    <t>Immunization.performer.actor.id</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor.extension</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor.extension:actor</t>
-  </si>
-  <si>
-    <t>actor</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Immunization.performer.actor from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Immunization.performer.actor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Immunization.performer.actor` is mapped to FHIR R4 element `Immunization.performer.actor`.</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor.reference</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor.type</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor.identifier</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor.display</t>
-  </si>
-  <si>
     <t>Immunization.note</t>
   </si>
   <si>
@@ -1329,6 +1305,12 @@
     <t>Immunization.education.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Immunization.education.modifierExtension</t>
   </si>
   <si>
@@ -1414,7 +1396,7 @@
     <t>Cross-version extension for Immunization.programEligibility from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Immunization.programEligibility` is mapped to FHIR R4 element `Immunization.programEligibility`.</t>
+    <t>Element `Immunization.programEligibility` has is mapped to FHIR R4 element `Immunization.programEligibility`, but has no comparisons.</t>
   </si>
   <si>
     <t>Immunization.programEligibility.coding</t>
@@ -1508,6 +1490,22 @@
     <t>Immunization.reaction.extension</t>
   </si>
   <si>
+    <t>Immunization.reaction.extension:reaction</t>
+  </si>
+  <si>
+    <t>reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.reaction|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Immunization.reaction from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Immunization.reaction` has is mapped to FHIR R4 element `Immunization.reaction`, but has no comparisons.</t>
+  </si>
+  <si>
     <t>Immunization.reaction.modifierExtension</t>
   </si>
   <si>
@@ -1570,6 +1568,22 @@
   </si>
   <si>
     <t>Immunization.protocolApplied.extension</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.extension:protocolApplied</t>
+  </si>
+  <si>
+    <t>protocolApplied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.protocolApplied|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Immunization.protocolApplied from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Immunization.protocolApplied` has is mapped to FHIR R4 element `Immunization.protocolApplied`, but has no comparisons.</t>
   </si>
   <si>
     <t>Immunization.protocolApplied.modifierExtension</t>
@@ -1937,7 +1951,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO87"/>
+  <dimension ref="A1:AO83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6657,7 +6671,7 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6679,14 +6693,12 @@
         <v>134</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>354</v>
+        <v>135</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6723,16 +6735,14 @@
         <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>280</v>
@@ -6756,7 +6766,7 @@
         <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6767,14 +6777,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="D42" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6787,26 +6799,24 @@
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>134</v>
+        <v>356</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>170</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6854,7 +6864,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6863,7 +6873,7 @@
         <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>140</v>
@@ -6875,7 +6885,7 @@
         <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -6886,42 +6896,46 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6945,13 +6959,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>365</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -6969,28 +6983,28 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>366</v>
+        <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>367</v>
+        <v>132</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -7001,10 +7015,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7012,7 +7026,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>89</v>
@@ -7027,17 +7041,15 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>369</v>
+        <v>191</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7062,13 +7074,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>368</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -7086,10 +7098,10 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>89</v>
@@ -7101,16 +7113,16 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>375</v>
+        <v>78</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7118,10 +7130,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7129,7 +7141,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>89</v>
@@ -7141,18 +7153,20 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>273</v>
+        <v>372</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>274</v>
+        <v>373</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7201,10 +7215,10 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>276</v>
+        <v>371</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>89</v>
@@ -7213,19 +7227,19 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>78</v>
+        <v>376</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>277</v>
+        <v>377</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7233,10 +7247,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7244,7 +7258,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>80</v>
@@ -7256,16 +7270,16 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>134</v>
+        <v>380</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>135</v>
+        <v>381</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>136</v>
+        <v>382</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7304,19 +7318,19 @@
         <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>280</v>
+        <v>379</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7328,16 +7342,16 @@
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>78</v>
+        <v>383</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7348,23 +7362,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7376,17 +7388,15 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7411,13 +7421,13 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>78</v>
+        <v>389</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7435,7 +7445,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>280</v>
+        <v>386</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7447,16 +7457,16 @@
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>78</v>
+        <v>392</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7467,10 +7477,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7481,7 +7491,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7490,20 +7500,18 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>273</v>
+        <v>394</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>287</v>
+        <v>387</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7552,22 +7560,22 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>290</v>
+        <v>393</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>78</v>
+        <v>396</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>78</v>
@@ -7584,10 +7592,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7604,28 +7612,30 @@
         <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>103</v>
+        <v>243</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>293</v>
+        <v>398</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>294</v>
+        <v>399</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>295</v>
+        <v>400</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="R49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7645,13 +7655,13 @@
         <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>298</v>
+        <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -7669,7 +7679,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>299</v>
+        <v>397</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7687,7 +7697,7 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>78</v>
+        <v>402</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>132</v>
@@ -7701,10 +7711,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7715,7 +7725,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7724,20 +7734,18 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>301</v>
+        <v>404</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7762,13 +7770,13 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>78</v>
+        <v>407</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -7786,13 +7794,13 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>304</v>
+        <v>403</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
@@ -7807,7 +7815,7 @@
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>305</v>
+        <v>132</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7818,10 +7826,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7832,7 +7840,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -7841,20 +7849,18 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>273</v>
+        <v>346</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>307</v>
+        <v>409</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7903,19 +7909,19 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>310</v>
+        <v>408</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>101</v>
+        <v>411</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
@@ -7935,10 +7941,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7949,7 +7955,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -7958,16 +7964,16 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>388</v>
+        <v>273</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>389</v>
+        <v>274</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>390</v>
+        <v>275</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8018,28 +8024,28 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>387</v>
+        <v>276</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>391</v>
+        <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>392</v>
+        <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>393</v>
+        <v>277</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -8050,14 +8056,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8076,15 +8082,17 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8109,13 +8117,13 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>398</v>
+        <v>78</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -8133,7 +8141,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>394</v>
+        <v>280</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8145,16 +8153,16 @@
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>399</v>
+        <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>400</v>
+        <v>277</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8165,14 +8173,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8185,22 +8193,26 @@
         <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>402</v>
+        <v>134</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8248,7 +8260,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8260,10 +8272,10 @@
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>404</v>
+        <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>78</v>
@@ -8280,10 +8292,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8300,30 +8312,26 @@
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q55" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8367,7 +8375,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8385,7 +8393,7 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>132</v>
@@ -8399,10 +8407,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8413,7 +8421,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8425,13 +8433,13 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8458,13 +8466,13 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>415</v>
+        <v>78</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8482,13 +8490,13 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
@@ -8514,10 +8522,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8528,7 +8536,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8540,13 +8548,13 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>346</v>
+        <v>237</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8597,25 +8605,25 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>419</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>78</v>
+        <v>427</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>132</v>
@@ -8629,10 +8637,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8655,13 +8663,13 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>274</v>
+        <v>429</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>275</v>
+        <v>430</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8712,7 +8720,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>276</v>
+        <v>428</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8724,16 +8732,16 @@
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>78</v>
+        <v>431</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>277</v>
+        <v>132</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8744,14 +8752,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8770,17 +8778,15 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8805,13 +8811,13 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>78</v>
+        <v>435</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>78</v>
+        <v>436</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8829,7 +8835,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>280</v>
+        <v>432</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8841,16 +8847,16 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>78</v>
+        <v>437</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>277</v>
+        <v>132</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -8861,46 +8867,42 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>358</v>
+        <v>274</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8948,19 +8950,19 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>360</v>
+        <v>276</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
@@ -8969,7 +8971,7 @@
         <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>132</v>
+        <v>277</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -8980,10 +8982,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8994,7 +8996,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -9006,13 +9008,13 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>273</v>
+        <v>134</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>424</v>
+        <v>135</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>425</v>
+        <v>136</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9051,40 +9053,40 @@
         <v>78</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>423</v>
+        <v>280</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>426</v>
+        <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9095,12 +9097,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="D62" t="s" s="2">
         <v>78</v>
       </c>
@@ -9109,7 +9113,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -9121,15 +9125,17 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>103</v>
+        <v>442</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9178,19 +9184,19 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>427</v>
+        <v>280</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -9199,7 +9205,7 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9210,10 +9216,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9224,7 +9230,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
@@ -9233,19 +9239,23 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>237</v>
+        <v>446</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9293,13 +9303,13 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
@@ -9311,10 +9321,10 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>132</v>
+        <v>453</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9325,10 +9335,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9348,19 +9358,23 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9408,7 +9422,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9426,10 +9440,10 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>132</v>
+        <v>461</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9440,10 +9454,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9454,7 +9468,7 @@
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9469,10 +9483,10 @@
         <v>191</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9502,10 +9516,10 @@
         <v>195</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
@@ -9523,13 +9537,13 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
@@ -9541,7 +9555,7 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>443</v>
+        <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>132</v>
@@ -9555,10 +9569,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9569,7 +9583,7 @@
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
@@ -9581,15 +9595,17 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>273</v>
+        <v>346</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>274</v>
+        <v>468</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9638,28 +9654,28 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>276</v>
+        <v>467</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>78</v>
+        <v>471</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>277</v>
+        <v>472</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9670,10 +9686,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9684,7 +9700,7 @@
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9696,13 +9712,13 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>135</v>
+        <v>274</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>136</v>
+        <v>275</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9741,31 +9757,31 @@
         <v>78</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
@@ -9774,7 +9790,7 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9785,14 +9801,12 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
         <v>78</v>
       </c>
@@ -9813,17 +9827,15 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>448</v>
+        <v>134</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>449</v>
+        <v>135</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -9860,16 +9872,14 @@
         <v>78</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC68" s="2"/>
       <c r="AD68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>280</v>
@@ -9904,12 +9914,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="D69" t="s" s="2">
         <v>78</v>
       </c>
@@ -9927,23 +9939,21 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>78</v>
       </c>
@@ -9991,7 +10001,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>457</v>
+        <v>280</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10000,19 +10010,19 @@
         <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>458</v>
+        <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>459</v>
+        <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10023,45 +10033,45 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>273</v>
+        <v>134</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>461</v>
+        <v>361</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>462</v>
+        <v>362</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>463</v>
+        <v>169</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>464</v>
+        <v>170</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -10110,28 +10120,28 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>465</v>
+        <v>363</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>466</v>
+        <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>467</v>
+        <v>132</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10142,10 +10152,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10168,13 +10178,13 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10201,13 +10211,13 @@
         <v>78</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>471</v>
+        <v>78</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>472</v>
+        <v>78</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>78</v>
@@ -10225,7 +10235,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10243,10 +10253,10 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>78</v>
+        <v>484</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10257,10 +10267,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10271,7 +10281,7 @@
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10283,17 +10293,15 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>346</v>
+        <v>486</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -10342,13 +10350,13 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
@@ -10360,10 +10368,10 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10374,10 +10382,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10400,13 +10408,13 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>274</v>
+        <v>492</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>275</v>
+        <v>493</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10457,7 +10465,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>276</v>
+        <v>491</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10469,16 +10477,16 @@
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>78</v>
+        <v>494</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>277</v>
+        <v>495</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10489,14 +10497,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10515,17 +10523,15 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>134</v>
+        <v>346</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>354</v>
+        <v>497</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10574,7 +10580,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>280</v>
+        <v>496</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10586,7 +10592,7 @@
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
@@ -10595,7 +10601,7 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>277</v>
+        <v>132</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10606,46 +10612,42 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>358</v>
+        <v>274</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>78</v>
       </c>
@@ -10693,19 +10695,19 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>360</v>
+        <v>276</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -10714,7 +10716,7 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>132</v>
+        <v>277</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10725,10 +10727,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10739,7 +10741,7 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
@@ -10751,13 +10753,13 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>237</v>
+        <v>134</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>483</v>
+        <v>135</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>484</v>
+        <v>136</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10796,40 +10798,38 @@
         <v>78</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC76" s="2"/>
       <c r="AD76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>482</v>
+        <v>280</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>485</v>
+        <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10840,12 +10840,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="D77" t="s" s="2">
         <v>78</v>
       </c>
@@ -10854,7 +10856,7 @@
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
@@ -10866,15 +10868,17 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>78</v>
@@ -10923,28 +10927,28 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>486</v>
+        <v>280</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>490</v>
+        <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -10955,42 +10959,46 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>493</v>
+        <v>361</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
@@ -11038,28 +11046,28 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>492</v>
+        <v>363</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>495</v>
+        <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>496</v>
+        <v>132</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11070,10 +11078,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11084,7 +11092,7 @@
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
@@ -11096,13 +11104,13 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>346</v>
+        <v>273</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11153,13 +11161,13 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
@@ -11185,10 +11193,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11211,13 +11219,13 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>274</v>
+        <v>511</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>275</v>
+        <v>512</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11268,7 +11276,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>276</v>
+        <v>510</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11280,7 +11288,7 @@
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
@@ -11289,7 +11297,7 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>277</v>
+        <v>132</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11300,14 +11308,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11326,17 +11334,15 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>354</v>
+        <v>514</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -11361,13 +11367,13 @@
         <v>78</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>78</v>
+        <v>516</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>78</v>
+        <v>517</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>78</v>
@@ -11385,7 +11391,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>280</v>
+        <v>513</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11397,7 +11403,7 @@
         <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
@@ -11406,7 +11412,7 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>277</v>
+        <v>132</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11417,46 +11423,44 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>134</v>
+        <v>519</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>358</v>
+        <v>520</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>359</v>
+        <v>521</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11504,19 +11508,19 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>360</v>
+        <v>518</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
@@ -11536,10 +11540,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11562,15 +11566,17 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>273</v>
+        <v>519</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>78</v>
@@ -11619,7 +11625,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11646,470 +11652,6 @@
         <v>78</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO87" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Immunization.xlsx
+++ b/StructureDefinition-profile-Immunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8257334-06:00</t>
+    <t>2026-02-20T11:59:20.841399-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Immunization|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Immunization</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -458,7 +458,7 @@
     <t>administeredProduct</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.administeredProduct|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.administeredProduct}
 </t>
   </si>
   <si>
@@ -481,7 +481,7 @@
     <t>informationSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.informationSource|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.informationSource}
 </t>
   </si>
   <si>
@@ -500,7 +500,7 @@
     <t>basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -896,7 +896,7 @@
     <t>manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.manufacturer|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.manufacturer}
 </t>
   </si>
   <si>
@@ -1124,7 +1124,7 @@
     <t>performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.performer|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.performer}
 </t>
   </si>
   <si>
@@ -1389,7 +1389,7 @@
     <t>programEligibility</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.programEligibility|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.programEligibility}
 </t>
   </si>
   <si>
@@ -1496,7 +1496,7 @@
     <t>reaction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.reaction|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.reaction}
 </t>
   </si>
   <si>
@@ -1576,7 +1576,7 @@
     <t>protocolApplied</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.protocolApplied|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.protocolApplied}
 </t>
   </si>
   <si>
@@ -1970,7 +1970,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.6171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-Immunization.xlsx
+++ b/StructureDefinition-profile-Immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2896" uniqueCount="500">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.841399-06:00</t>
+    <t>2026-02-21T13:36:54.2490425-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Immunization</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Immunization|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -458,7 +458,7 @@
     <t>administeredProduct</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.administeredProduct}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.administeredProduct|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -481,7 +481,7 @@
     <t>informationSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.informationSource}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.informationSource|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -492,42 +492,6 @@
   </si>
   <si>
     <t>Element `Immunization.informationSource` has a context of Immunization based on following the parent source element upwards and mapping to `Immunization`.</t>
-  </si>
-  <si>
-    <t>Immunization.extension:basedOn</t>
-  </si>
-  <si>
-    <t>basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Immunization.basedOn from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CarePlan,http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation,http://hl7.org/fhir/StructureDefinition/MedicationRequest,http://hl7.org/fhir/StructureDefinition/ServiceRequest in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Immunization.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Immunization.basedOn` has a context of Immunization based on following the parent source element upwards and mapping to `Immunization`.</t>
-  </si>
-  <si>
-    <t>Immunization.extension:supportingInformation</t>
-  </si>
-  <si>
-    <t>supportingInformation</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Immunization.supportingInformation from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Resource in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Immunization.supportingInformation` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Immunization.supportingInformation` has a context of Immunization based on following the parent source element upwards and mapping to `Immunization`.</t>
   </si>
   <si>
     <t>Immunization.modifierExtension</t>
@@ -896,14 +860,14 @@
     <t>manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.manufacturer}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.manufacturer|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Immunization.manufacturer from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Immunization.manufacturer` has is mapped to FHIR R4 element `Immunization.manufacturer`, but has no comparisons.</t>
+    <t>Element `Immunization.manufacturer` is mapped to FHIR R4 element `Immunization.manufacturer` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Immunization.manufacturer.reference</t>
@@ -1118,20 +1082,10 @@
     <t>Immunization.performer.extension</t>
   </si>
   <si>
-    <t>Immunization.performer.extension:performer</t>
-  </si>
-  <si>
-    <t>performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.performer}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Immunization.performer from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Immunization.performer` has is mapped to FHIR R4 element `Immunization.performer`, but has no comparisons.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Immunization.performer.modifierExtension</t>
@@ -1305,12 +1259,6 @@
     <t>Immunization.education.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Immunization.education.modifierExtension</t>
   </si>
   <si>
@@ -1389,14 +1337,14 @@
     <t>programEligibility</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.programEligibility}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.programEligibility|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Immunization.programEligibility from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Immunization.programEligibility` has is mapped to FHIR R4 element `Immunization.programEligibility`, but has no comparisons.</t>
+    <t>Element `Immunization.programEligibility` is mapped to FHIR R4 element `Immunization.programEligibility` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Immunization.programEligibility.coding</t>
@@ -1490,22 +1438,6 @@
     <t>Immunization.reaction.extension</t>
   </si>
   <si>
-    <t>Immunization.reaction.extension:reaction</t>
-  </si>
-  <si>
-    <t>reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.reaction}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Immunization.reaction from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Immunization.reaction` has is mapped to FHIR R4 element `Immunization.reaction`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>Immunization.reaction.modifierExtension</t>
   </si>
   <si>
@@ -1568,22 +1500,6 @@
   </si>
   <si>
     <t>Immunization.protocolApplied.extension</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.extension:protocolApplied</t>
-  </si>
-  <si>
-    <t>protocolApplied</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Immunization.protocolApplied}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Immunization.protocolApplied from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Immunization.protocolApplied` has is mapped to FHIR R4 element `Immunization.protocolApplied`, but has no comparisons.</t>
   </si>
   <si>
     <t>Immunization.protocolApplied.modifierExtension</t>
@@ -1951,7 +1867,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO83"/>
+  <dimension ref="A1:AO78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1962,7 +1878,7 @@
   <cols>
     <col min="1" max="1" width="49.56640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.1953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.8671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1970,7 +1886,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.6171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3298,13 +3214,11 @@
         <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3317,24 +3231,26 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>78</v>
       </c>
@@ -3382,7 +3298,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3403,7 +3319,7 @@
         <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3414,14 +3330,12 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C13" t="s" s="2">
         <v>161</v>
       </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3442,17 +3356,15 @@
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N13" t="s" s="2">
         <v>164</v>
       </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -3501,7 +3413,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3513,41 +3425,41 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>78</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -3556,23 +3468,21 @@
         <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3596,13 +3506,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3620,31 +3530,31 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>78</v>
@@ -3652,10 +3562,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3666,7 +3576,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3678,15 +3588,17 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3711,13 +3623,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3735,13 +3647,13 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
@@ -3750,27 +3662,27 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3787,23 +3699,21 @@
         <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3831,10 +3741,10 @@
         <v>184</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3852,7 +3762,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>89</v>
@@ -3867,27 +3777,27 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3895,7 +3805,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
@@ -3907,20 +3817,18 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3945,13 +3853,13 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3969,10 +3877,10 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>89</v>
@@ -3984,16 +3892,16 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>78</v>
@@ -4001,10 +3909,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4012,7 +3920,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>89</v>
@@ -4024,16 +3932,16 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4060,13 +3968,13 @@
         <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>78</v>
@@ -4084,10 +3992,10 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>89</v>
@@ -4099,27 +4007,27 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4142,15 +4050,17 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -4199,7 +4109,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>89</v>
@@ -4214,27 +4124,27 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>78</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4257,13 +4167,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4314,7 +4224,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4329,16 +4239,16 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>78</v>
@@ -4346,10 +4256,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4357,7 +4267,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>89</v>
@@ -4372,16 +4282,16 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4431,10 +4341,10 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>89</v>
@@ -4446,27 +4356,27 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4489,15 +4399,17 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4522,13 +4434,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -4546,7 +4458,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4564,13 +4476,13 @@
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4578,10 +4490,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4601,20 +4513,18 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4663,7 +4573,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4678,16 +4588,16 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4695,10 +4605,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4721,17 +4631,15 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4756,31 +4664,31 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4798,24 +4706,24 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>78</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4838,13 +4746,13 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4895,7 +4803,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4907,19 +4815,19 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>262</v>
+        <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>78</v>
@@ -4927,10 +4835,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4941,7 +4849,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4953,13 +4861,13 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>266</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>267</v>
+        <v>135</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4998,56 +4906,58 @@
         <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>78</v>
       </c>
@@ -5068,15 +4978,17 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -5125,19 +5037,19 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
@@ -5146,7 +5058,7 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -5157,10 +5069,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5171,7 +5083,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -5180,18 +5092,20 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>135</v>
+        <v>276</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5228,31 +5142,31 @@
         <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AD28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF28" t="s" s="2">
+      <c r="AG28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI28" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AJ28" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -5261,7 +5175,7 @@
         <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5275,11 +5189,9 @@
         <v>281</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5297,19 +5209,19 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5335,13 +5247,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5359,19 +5271,19 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
@@ -5380,7 +5292,7 @@
         <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5391,10 +5303,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5417,16 +5329,16 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5476,7 +5388,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5485,7 +5397,7 @@
         <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>101</v>
@@ -5497,7 +5409,7 @@
         <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>132</v>
+        <v>294</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5508,10 +5420,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5534,16 +5446,16 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>103</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5569,13 +5481,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>298</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5648,10 +5560,10 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>301</v>
@@ -5659,9 +5571,7 @@
       <c r="M32" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="N32" t="s" s="2">
-        <v>303</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5710,7 +5620,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5728,16 +5638,16 @@
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO32" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -5765,20 +5675,18 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N33" t="s" s="2">
         <v>309</v>
       </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5827,7 +5735,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5845,10 +5753,10 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>132</v>
+        <v>311</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5859,10 +5767,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5885,13 +5793,13 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>273</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5918,13 +5826,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5942,7 +5850,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5960,24 +5868,24 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6000,13 +5908,13 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>318</v>
+        <v>180</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6033,13 +5941,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>323</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -6057,7 +5965,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6075,24 +5983,24 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6115,13 +6023,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>191</v>
+        <v>329</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6148,13 +6056,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -6172,7 +6080,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6190,24 +6098,24 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>330</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6218,7 +6126,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6227,16 +6135,16 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>191</v>
+        <v>335</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6263,37 +6171,37 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
@@ -6302,27 +6210,27 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6345,13 +6253,13 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>341</v>
+        <v>263</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>342</v>
+        <v>264</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6402,7 +6310,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>339</v>
+        <v>265</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6414,16 +6322,16 @@
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>344</v>
+        <v>266</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6434,14 +6342,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6457,18 +6365,20 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>346</v>
+        <v>134</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6517,7 +6427,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>345</v>
+        <v>269</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6529,16 +6439,16 @@
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>349</v>
+        <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>350</v>
+        <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>351</v>
+        <v>266</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6549,42 +6459,46 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>78</v>
+        <v>346</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>273</v>
+        <v>134</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>274</v>
+        <v>347</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6632,19 +6546,19 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>276</v>
+        <v>349</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
@@ -6653,7 +6567,7 @@
         <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>277</v>
+        <v>132</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6664,10 +6578,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6678,7 +6592,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6687,16 +6601,16 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>135</v>
+        <v>351</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>136</v>
+        <v>352</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6723,50 +6637,52 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>78</v>
+        <v>354</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>78</v>
+        <v>355</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>78</v>
+        <v>356</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6777,23 +6693,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6802,19 +6716,19 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6864,31 +6778,31 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>280</v>
+        <v>357</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>78</v>
+        <v>363</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>78</v>
+        <v>364</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -6896,14 +6810,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>360</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6916,26 +6830,22 @@
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>134</v>
+        <v>366</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6983,7 +6893,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6995,16 +6905,16 @@
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>78</v>
+        <v>370</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>132</v>
+        <v>371</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -7015,10 +6925,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7029,7 +6939,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -7038,16 +6948,16 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7074,13 +6984,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>296</v>
+        <v>184</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -7098,13 +7008,13 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
@@ -7113,13 +7023,13 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7130,10 +7040,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7141,10 +7051,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -7153,20 +7063,18 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>373</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7215,13 +7123,13 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
@@ -7230,16 +7138,16 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>377</v>
+        <v>132</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7247,10 +7155,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7261,32 +7169,36 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>380</v>
+        <v>232</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="R46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7330,13 +7242,13 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
@@ -7345,13 +7257,13 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>383</v>
+        <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>385</v>
+        <v>132</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7362,10 +7274,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7388,13 +7300,13 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7421,31 +7333,31 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7460,13 +7372,13 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>391</v>
+        <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>392</v>
+        <v>132</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7477,10 +7389,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7503,13 +7415,13 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>394</v>
+        <v>335</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7560,7 +7472,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7572,10 +7484,10 @@
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>397</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>396</v>
+        <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>78</v>
@@ -7592,10 +7504,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7612,30 +7524,26 @@
         <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>398</v>
+        <v>263</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q49" t="s" s="2">
-        <v>401</v>
-      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7679,7 +7587,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>397</v>
+        <v>265</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7691,16 +7599,16 @@
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7711,14 +7619,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7737,15 +7645,17 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>404</v>
+        <v>343</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7770,13 +7680,13 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>407</v>
+        <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -7794,7 +7704,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>403</v>
+        <v>269</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7806,7 +7716,7 @@
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
@@ -7815,7 +7725,7 @@
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7826,14 +7736,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>78</v>
+        <v>346</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7846,22 +7756,26 @@
         <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>346</v>
+        <v>134</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>409</v>
+        <v>347</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7909,7 +7823,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>408</v>
+        <v>349</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7921,7 +7835,7 @@
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>411</v>
+        <v>140</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
@@ -7941,10 +7855,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7967,13 +7881,13 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>274</v>
+        <v>402</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>275</v>
+        <v>403</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8024,7 +7938,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>276</v>
+        <v>401</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8036,16 +7950,16 @@
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>277</v>
+        <v>132</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -8056,21 +7970,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -8082,17 +7996,15 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8141,19 +8053,19 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>280</v>
+        <v>405</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -8162,7 +8074,7 @@
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>277</v>
+        <v>132</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8173,46 +8085,42 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>360</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8260,25 +8168,25 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>78</v>
+        <v>411</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>132</v>
@@ -8292,10 +8200,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8318,13 +8226,13 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8375,7 +8283,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8393,7 +8301,7 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>132</v>
@@ -8407,10 +8315,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8421,7 +8329,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8433,13 +8341,13 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8466,13 +8374,13 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>78</v>
+        <v>419</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>78</v>
+        <v>420</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8490,13 +8398,13 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
@@ -8508,7 +8416,7 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>78</v>
+        <v>421</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>132</v>
@@ -8522,10 +8430,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8548,13 +8456,13 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>425</v>
+        <v>263</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>426</v>
+        <v>264</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8605,7 +8513,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>424</v>
+        <v>265</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8617,16 +8525,16 @@
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>427</v>
+        <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8637,10 +8545,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8651,7 +8559,7 @@
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8663,13 +8571,13 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>237</v>
+        <v>134</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>429</v>
+        <v>135</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>430</v>
+        <v>136</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8708,40 +8616,40 @@
         <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>428</v>
+        <v>269</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>431</v>
+        <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8752,12 +8660,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8778,15 +8688,17 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>191</v>
+        <v>426</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8811,13 +8723,13 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>435</v>
+        <v>78</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>436</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8835,7 +8747,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>432</v>
+        <v>269</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8847,16 +8759,16 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>437</v>
+        <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -8867,10 +8779,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8881,7 +8793,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -8890,19 +8802,23 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>273</v>
+        <v>430</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>274</v>
+        <v>431</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8950,28 +8866,28 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>276</v>
+        <v>435</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>78</v>
+        <v>436</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>277</v>
+        <v>437</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -8982,10 +8898,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8996,7 +8912,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -9005,19 +8921,23 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>135</v>
+        <v>439</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -9053,40 +8973,40 @@
         <v>78</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>280</v>
+        <v>443</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>78</v>
+        <v>444</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9097,14 +9017,12 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
         <v>78</v>
       </c>
@@ -9113,7 +9031,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -9125,17 +9043,15 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>442</v>
+        <v>180</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9160,13 +9076,13 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>78</v>
+        <v>450</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -9184,19 +9100,19 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>280</v>
+        <v>446</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -9205,7 +9121,7 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9216,10 +9132,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9239,23 +9155,21 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>446</v>
+        <v>335</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9321,10 +9235,10 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9335,10 +9249,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9358,23 +9272,19 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>455</v>
+        <v>263</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9422,7 +9332,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>459</v>
+        <v>265</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9434,16 +9344,16 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>460</v>
+        <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>461</v>
+        <v>266</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9454,21 +9364,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9480,15 +9390,17 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>463</v>
+        <v>343</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9513,13 +9425,13 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>465</v>
+        <v>78</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>466</v>
+        <v>78</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
@@ -9537,19 +9449,19 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>462</v>
+        <v>269</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
@@ -9558,7 +9470,7 @@
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9569,14 +9481,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>78</v>
+        <v>346</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9589,24 +9501,26 @@
         <v>78</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>346</v>
+        <v>134</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>468</v>
+        <v>347</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>469</v>
+        <v>348</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9654,7 +9568,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>467</v>
+        <v>349</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9666,16 +9580,16 @@
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>471</v>
+        <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>472</v>
+        <v>132</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9686,10 +9600,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9712,13 +9626,13 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>274</v>
+        <v>461</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>275</v>
+        <v>462</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9769,7 +9683,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>276</v>
+        <v>460</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9781,16 +9695,16 @@
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>78</v>
+        <v>463</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9801,10 +9715,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9815,7 +9729,7 @@
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
@@ -9827,13 +9741,13 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>134</v>
+        <v>465</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>135</v>
+        <v>466</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>136</v>
+        <v>467</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9872,38 +9786,40 @@
         <v>78</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC68" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>280</v>
+        <v>464</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>78</v>
+        <v>468</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>78</v>
+        <v>469</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -9914,14 +9830,12 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
         <v>78</v>
       </c>
@@ -9930,7 +9844,7 @@
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -9942,17 +9856,15 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>477</v>
+        <v>232</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -10001,28 +9913,28 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>280</v>
+        <v>470</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>78</v>
+        <v>473</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>78</v>
+        <v>474</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10033,14 +9945,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>360</v>
+        <v>78</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10053,26 +9965,22 @@
         <v>78</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>134</v>
+        <v>335</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>361</v>
+        <v>476</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>78</v>
       </c>
@@ -10120,7 +10028,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>363</v>
+        <v>475</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10132,7 +10040,7 @@
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
@@ -10152,10 +10060,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10178,13 +10086,13 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>482</v>
+        <v>263</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>483</v>
+        <v>264</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10235,7 +10143,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>481</v>
+        <v>265</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10247,16 +10155,16 @@
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>484</v>
+        <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10267,21 +10175,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10293,15 +10201,17 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>486</v>
+        <v>134</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>487</v>
+        <v>343</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -10350,28 +10260,28 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>485</v>
+        <v>269</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>489</v>
+        <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>490</v>
+        <v>266</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10382,42 +10292,46 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>78</v>
+        <v>346</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>492</v>
+        <v>347</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10465,28 +10379,28 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>491</v>
+        <v>349</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>494</v>
+        <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>495</v>
+        <v>132</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10497,10 +10411,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10511,7 +10425,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10523,13 +10437,13 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>346</v>
+        <v>262</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10580,13 +10494,13 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
@@ -10612,10 +10526,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10638,13 +10552,13 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>274</v>
+        <v>485</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>275</v>
+        <v>486</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10695,7 +10609,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>276</v>
+        <v>484</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10707,7 +10621,7 @@
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -10716,7 +10630,7 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>277</v>
+        <v>132</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10727,10 +10641,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10753,13 +10667,13 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>135</v>
+        <v>488</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>136</v>
+        <v>489</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10786,29 +10700,31 @@
         <v>78</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>78</v>
+        <v>490</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>78</v>
+        <v>491</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC76" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>280</v>
+        <v>487</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10820,7 +10736,7 @@
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
@@ -10829,7 +10745,7 @@
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10840,23 +10756,21 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
@@ -10868,16 +10782,16 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10927,19 +10841,19 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>280</v>
+        <v>492</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
@@ -10948,7 +10862,7 @@
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -10959,46 +10873,44 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>360</v>
+        <v>78</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>134</v>
+        <v>493</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>361</v>
+        <v>498</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>362</v>
+        <v>499</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
@@ -11046,19 +10958,19 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>363</v>
+        <v>497</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
@@ -11073,585 +10985,6 @@
         <v>78</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO83" t="s" s="2">
         <v>78</v>
       </c>
     </row>
